--- a/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 8,19</t>
+          <t>-6,93; 8,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,76</t>
+          <t>-3,11; 3,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 32,27</t>
+          <t>-20,66; 32,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 88,64</t>
+          <t>-37,41; 84,11</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,41</t>
+          <t>-4,26; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,41</t>
+          <t>-2,76; 3,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 48,02</t>
+          <t>-25,26; 38,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 93,99</t>
+          <t>-37,22; 95,0</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 12,05</t>
+          <t>2,17; 11,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,11</t>
+          <t>-4,82; 6,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 188,13</t>
+          <t>16,79; 185,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 37,24</t>
+          <t>-20,7; 35,68</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 18,23</t>
+          <t>6,07; 18,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,39</t>
+          <t>-5,92; 4,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,35; 139,25</t>
+          <t>31,77; 138,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 47,75</t>
+          <t>-37,09; 49,28</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 15,51</t>
+          <t>-2,18; 16,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,06</t>
+          <t>-2,35; 5,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 53,3</t>
+          <t>-5,83; 54,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 104,96</t>
+          <t>-25,1; 104,3</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 10,19</t>
+          <t>-3,95; 10,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,84</t>
+          <t>-5,08; 6,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 68,55</t>
+          <t>-17,91; 65,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 36,55</t>
+          <t>-19,81; 37,53</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,01</t>
+          <t>-0,21; 8,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 5,41</t>
+          <t>-2,87; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 64,09</t>
+          <t>-1,43; 59,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 69,0</t>
+          <t>-25,51; 67,87</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,07</t>
+          <t>1,4; 9,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,52; 17,52</t>
+          <t>8,03; 17,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,86; 57,3</t>
+          <t>6,07; 55,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,84; 102,73</t>
+          <t>35,28; 99,62</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,94</t>
+          <t>2,87; 6,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,91</t>
+          <t>1,07; 5,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,91; 40,03</t>
+          <t>14,65; 39,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,17; 38,46</t>
+          <t>7,66; 39,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 8,41</t>
+          <t>-6,76; 8,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 32,3</t>
+          <t>-20,18; 34,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,7</t>
+          <t>-4,35; 4,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 38,89</t>
+          <t>-26,62; 38,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 11,9</t>
+          <t>1,7; 12,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 185,5</t>
+          <t>14,05; 183,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 18,6</t>
+          <t>6,33; 18,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 138,68</t>
+          <t>32,83; 138,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 16,06</t>
+          <t>-1,81; 16,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 54,21</t>
+          <t>-4,8; 53,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 10,06</t>
+          <t>-3,3; 10,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 65,95</t>
+          <t>-16,1; 70,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,83</t>
+          <t>0,22; 8,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 59,96</t>
+          <t>1,32; 63,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 9,85</t>
+          <t>1,44; 9,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,07; 55,12</t>
+          <t>5,46; 55,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,95</t>
+          <t>3,0; 6,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,65; 39,8</t>
+          <t>15,45; 40,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">

--- a/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 8,7</t>
+          <t>-6,26; 8,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,69</t>
+          <t>-2,85; 3,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 34,06</t>
+          <t>-18,38; 32,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 84,11</t>
+          <t>-34,76; 88,64</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 4,89</t>
+          <t>-3,95; 5,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,56</t>
+          <t>-2,64; 3,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 38,97</t>
+          <t>-24,46; 48,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 95,0</t>
+          <t>-35,65; 93,99</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 12,11</t>
+          <t>1,78; 12,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 6,21</t>
+          <t>-4,26; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 183,47</t>
+          <t>17,72; 188,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 35,68</t>
+          <t>-18,47; 37,24</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 18,34</t>
+          <t>5,48; 18,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,8</t>
+          <t>-6,58; 4,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,83; 138,3</t>
+          <t>29,35; 139,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 49,28</t>
+          <t>-39,7; 47,75</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 16,26</t>
+          <t>-1,66; 15,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,27</t>
+          <t>-2,47; 5,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 53,8</t>
+          <t>-4,03; 53,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 104,3</t>
+          <t>-26,72; 104,96</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 10,72</t>
+          <t>-4,23; 10,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 6,97</t>
+          <t>-4,57; 6,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 70,82</t>
+          <t>-18,96; 68,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 37,53</t>
+          <t>-18,37; 36,55</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 8,93</t>
+          <t>0,22; 9,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,27</t>
+          <t>-3,24; 5,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 63,41</t>
+          <t>1,13; 64,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 67,87</t>
+          <t>-26,89; 69,0</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,7</t>
+          <t>1,24; 10,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,03; 17,39</t>
+          <t>8,52; 17,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,46; 55,19</t>
+          <t>5,86; 57,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,28; 99,62</t>
+          <t>36,84; 102,73</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,93</t>
+          <t>2,83; 6,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,03</t>
+          <t>1,32; 4,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,45; 40,28</t>
+          <t>14,91; 40,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,66; 39,8</t>
+          <t>9,17; 38,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,76</t>
+          <t>-2,57; 3,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 88,64</t>
+          <t>-33,78; 94,6</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,41</t>
+          <t>-2,62; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 93,99</t>
+          <t>-36,12; 97,11</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,11</t>
+          <t>-4,04; 6,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 37,24</t>
+          <t>-17,51; 39,44</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,11%</t>
+          <t>-19,9%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,39</t>
+          <t>-9,52; 2,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 47,75</t>
+          <t>-60,0; 24,89</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>24,06%</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,06</t>
+          <t>-2,32; 5,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 104,96</t>
+          <t>-25,96; 105,5</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,84</t>
+          <t>-4,25; 7,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 36,55</t>
+          <t>-17,54; 39,0</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 5,41</t>
+          <t>-6,0; 4,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 69,0</t>
+          <t>-52,21; 59,59</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>17,5</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>104,32%</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,52; 17,52</t>
+          <t>10,29; 27,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,84; 102,73</t>
+          <t>44,84; 337,84</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>26,5%</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,91</t>
+          <t>0,41; 5,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,17; 38,46</t>
+          <t>3,45; 55,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 8,19</t>
+          <t>-7,12; 8,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,75</t>
+          <t>-2,73; 4,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 32,27</t>
+          <t>-21,18; 34,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 94,6</t>
+          <t>-36,26; 107,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,41</t>
+          <t>-4,88; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 3,49</t>
+          <t>-3,07; 3,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 48,02</t>
+          <t>-28,89; 38,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 97,11</t>
+          <t>-38,24; 94,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 12,05</t>
+          <t>2,07; 12,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 6,39</t>
+          <t>-3,89; 6,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 188,13</t>
+          <t>19,23; 201,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 39,44</t>
+          <t>-17,35; 39,1</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 18,23</t>
+          <t>6,04; 18,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 2,65</t>
+          <t>-8,69; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,35; 139,25</t>
+          <t>30,2; 141,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,0; 24,89</t>
+          <t>-55,73; 25,46</t>
         </is>
       </c>
     </row>
@@ -849,29 +849,29 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 15,51</t>
+          <t>-2,16; 15,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,18</t>
+          <t>-2,28; 5,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 53,3</t>
+          <t>-5,66; 52,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 105,5</t>
+          <t>-24,73; 111,27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -909,29 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 10,19</t>
+          <t>-3,61; 9,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,21</t>
+          <t>-4,59; 6,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 68,55</t>
+          <t>-17,55; 65,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 39,0</t>
+          <t>-18,99; 38,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,01</t>
+          <t>-0,35; 8,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 4,99</t>
+          <t>-6,83; 4,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 64,09</t>
+          <t>-1,85; 65,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 59,59</t>
+          <t>-57,58; 60,65</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,07</t>
+          <t>1,04; 9,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,29; 27,71</t>
+          <t>10,44; 27,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,86; 57,3</t>
+          <t>5,62; 56,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,84; 337,84</t>
+          <t>44,04; 363,48</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,94</t>
+          <t>2,96; 6,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,9</t>
+          <t>0,4; 6,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,91; 40,03</t>
+          <t>14,74; 39,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,45; 55,42</t>
+          <t>3,75; 63,47</t>
         </is>
       </c>
     </row>
